--- a/biology/Écologie/David_Wilkinson_(biologiste)/David_Wilkinson_(biologiste).xlsx
+++ b/biology/Écologie/David_Wilkinson_(biologiste)/David_Wilkinson_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Wilkison est un biologiste anglais, spécialiste des sciences de l'environnement et de l'histoire des sciences. Il effectue des recherches en écologie, biogéographie, au sein du Earth system science et est affilié à l'hypothèse Gaïa.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses domaines d'étude sont la paléoécologie de l'ère quaternaire, l'archéologie environnementale (spécialement celle du Lake District) et l'écologie des protozoaires.
 Il est financé par la Royal Society depuis 2004, par le  Cumbria County Council et par l'école de biologie et des sciences de la Terre de Liverpool, au sein de l'université John Moores.
